--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/FFRAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/FFRAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -37,31 +37,31 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.648***</t>
-  </si>
-  <si>
-    <t>-0.17*</t>
-  </si>
-  <si>
-    <t>0.025***</t>
-  </si>
-  <si>
-    <t>0.347***</t>
-  </si>
-  <si>
-    <t>0.289*</t>
-  </si>
-  <si>
-    <t>-0.024***</t>
-  </si>
-  <si>
-    <t>4.355***</t>
-  </si>
-  <si>
-    <t>10.423***</t>
-  </si>
-  <si>
-    <t>-0.249***</t>
+    <t>-0.652***</t>
+  </si>
+  <si>
+    <t>-0.165</t>
+  </si>
+  <si>
+    <t>0.029***</t>
+  </si>
+  <si>
+    <t>0.35***</t>
+  </si>
+  <si>
+    <t>0.283*</t>
+  </si>
+  <si>
+    <t>-0.027***</t>
+  </si>
+  <si>
+    <t>3.793***</t>
+  </si>
+  <si>
+    <t>9.185***</t>
+  </si>
+  <si>
+    <t>-0.244***</t>
   </si>
 </sst>
 </file>
